--- a/output/fit_clients/fit_round_275.xlsx
+++ b/output/fit_clients/fit_round_275.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1957860110.513028</v>
+        <v>1518427432.078854</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1031872273921178</v>
+        <v>0.08353974692497503</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04082625095376866</v>
+        <v>0.02883310262338795</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>978930045.2681892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2426115053.785104</v>
+        <v>2642633822.969162</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1319757453293656</v>
+        <v>0.1407044313058437</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0337325876157956</v>
+        <v>0.03290423521948617</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1213057632.939481</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3371573208.93251</v>
+        <v>4896379485.052099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1491280496492865</v>
+        <v>0.1273018581220254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03382563358732443</v>
+        <v>0.03280808696818924</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>99</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1685786574.133057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3317831244.284054</v>
+        <v>3486412304.888917</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07324350585354313</v>
+        <v>0.07083116183679815</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03132417244923566</v>
+        <v>0.03926066399541505</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>103</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1658915670.9378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2682386710.292105</v>
+        <v>1841599196.606902</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1379337141307321</v>
+        <v>0.1227597778463475</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05426375916457859</v>
+        <v>0.04781616238376356</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1341193310.888901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2551386785.981852</v>
+        <v>1933358106.214681</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06684939326397303</v>
+        <v>0.0973748706219265</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03746401827905865</v>
+        <v>0.03689044206097698</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>86</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1275693401.119076</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3859718991.868324</v>
+        <v>3908584282.144097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1903133226401034</v>
+        <v>0.2008571047412967</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02358925229637638</v>
+        <v>0.03119638588032222</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1929859641.334332</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1549178349.070025</v>
+        <v>1476117547.061712</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1987420307775429</v>
+        <v>0.1612957106794185</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02521009074770754</v>
+        <v>0.03368852222750315</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>774589263.6827414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5773061426.607126</v>
+        <v>5538268749.978772</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2032363343608023</v>
+        <v>0.1634358284914654</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04236231397163265</v>
+        <v>0.04977560127436975</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>116</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2886530872.455528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3639567547.369224</v>
+        <v>4134016092.095414</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1796614606782137</v>
+        <v>0.1289341284997314</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04977275451115461</v>
+        <v>0.03102055360741257</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>114</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1819783761.227627</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2336365139.667498</v>
+        <v>2643418957.114167</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1882504739151116</v>
+        <v>0.1747596104879907</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05192213367008749</v>
+        <v>0.04127050153864718</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>94</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1168182527.089116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4462936727.445551</v>
+        <v>4200695504.604162</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09700277496813324</v>
+        <v>0.0762315892960347</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02653544003464397</v>
+        <v>0.03001145008012491</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>92</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2231468395.136406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2386614879.700404</v>
+        <v>3706248686.316326</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1867914454088676</v>
+        <v>0.151491840120938</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02896863959116294</v>
+        <v>0.0347927020388045</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1193307518.701909</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1224110769.704501</v>
+        <v>1512585781.069889</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09442609765696992</v>
+        <v>0.07060664972283802</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03573114504302883</v>
+        <v>0.04649927365206666</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>612055407.8053333</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1924522792.48009</v>
+        <v>2187586305.003199</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08743369129755976</v>
+        <v>0.07293381649678844</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03245996337828379</v>
+        <v>0.04566250008743248</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>52</v>
-      </c>
-      <c r="J16" t="n">
-        <v>962261478.4670992</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3781353693.118372</v>
+        <v>3466106949.283922</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1644823181451311</v>
+        <v>0.1336821415162336</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03606664743847618</v>
+        <v>0.03599553273314523</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>80</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1890676891.914831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2453869415.076784</v>
+        <v>3415775887.696821</v>
       </c>
       <c r="F18" t="n">
-        <v>0.137857251729455</v>
+        <v>0.1525242892195573</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03446693478568796</v>
+        <v>0.02434177114473276</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>90</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1226934777.386467</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>930825424.2047772</v>
+        <v>1213946105.068881</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1331373826352405</v>
+        <v>0.1918378698363983</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02659319641479483</v>
+        <v>0.02704790518184004</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>465412724.4913808</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2309452544.274601</v>
+        <v>2366517030.608478</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1602227581323041</v>
+        <v>0.09888391280987509</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02701917838114144</v>
+        <v>0.02540717576319845</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1154726265.529534</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1934879284.910949</v>
+        <v>1910465392.060997</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06216851625231638</v>
+        <v>0.06439570767692181</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03388262298540547</v>
+        <v>0.03042246887529574</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22</v>
-      </c>
-      <c r="J21" t="n">
-        <v>967439684.654078</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3582834151.258324</v>
+        <v>3313890765.56061</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1396780489003029</v>
+        <v>0.1325340471375721</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05133728961617678</v>
+        <v>0.05439392490036406</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>76</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1791417102.25749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1467798401.889339</v>
+        <v>956745706.8049518</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1337970545124306</v>
+        <v>0.1221109461533384</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03690168053676691</v>
+        <v>0.03617779831691405</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>733899192.3018385</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3037573938.418547</v>
+        <v>2838036656.093381</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1482007863188735</v>
+        <v>0.1072586598315322</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03163054882695217</v>
+        <v>0.0302460300881335</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>80</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1518787001.917105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1341721175.746863</v>
+        <v>1186585280.889384</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08048492411253404</v>
+        <v>0.07772253810938393</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02935127125890334</v>
+        <v>0.02752235001422081</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>670860573.2508786</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1357707216.6943</v>
+        <v>956769935.2373717</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1179269032783965</v>
+        <v>0.09887696136830901</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02671596952113755</v>
+        <v>0.03574782178200253</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>678853667.9477581</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4467354669.482767</v>
+        <v>3045124026.213352</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1299016027831338</v>
+        <v>0.1028968491578989</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0243203420518995</v>
+        <v>0.02163735869751295</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2233677321.662882</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3260829086.358192</v>
+        <v>3108231873.866165</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1445608756629527</v>
+        <v>0.09426606851798545</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04197532609902285</v>
+        <v>0.04612168583636259</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1630414577.065513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4114665875.625967</v>
+        <v>5371189312.627772</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09276822223208495</v>
+        <v>0.09268353051996421</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03874274880882924</v>
+        <v>0.03767312449325923</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>122</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2057332946.697144</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1464564689.806459</v>
+        <v>1535088540.64629</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1053064845189091</v>
+        <v>0.09968311501146281</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02900447060064499</v>
+        <v>0.03917211007187017</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>732282321.4110284</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1447083879.511928</v>
+        <v>903588255.8582875</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09229344166914219</v>
+        <v>0.09323058187133118</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03715641459988035</v>
+        <v>0.05034618250881442</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>723541833.0471256</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1307552808.480453</v>
+        <v>1414359064.058463</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08441625622558609</v>
+        <v>0.09322351549064309</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02396415637316754</v>
+        <v>0.03370470018657878</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>653776432.7040396</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2771287725.393661</v>
+        <v>2181133978.690974</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1713038122378972</v>
+        <v>0.1411536742223624</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05564492139035315</v>
+        <v>0.05884504066948194</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>84</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1385643877.823836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1074960434.069509</v>
+        <v>1319501549.630908</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1043555888246952</v>
+        <v>0.0792889651578583</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02181704464978656</v>
+        <v>0.01857337267549641</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>537480242.5961262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1269020753.628299</v>
+        <v>954609350.3506575</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1128103288399625</v>
+        <v>0.07465283090231212</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03042915248313936</v>
+        <v>0.03958897556724547</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>634510336.4038241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2697800588.538498</v>
+        <v>2637889247.804619</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1386024587392748</v>
+        <v>0.1480396563654731</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02586885725398682</v>
+        <v>0.02868304541856764</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>69</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1348900300.374099</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2462148403.890728</v>
+        <v>2753809160.824275</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09811115190107859</v>
+        <v>0.07341093167050922</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0352489415731715</v>
+        <v>0.03023584564684771</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>73</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1231074292.779464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1659757638.973667</v>
+        <v>1472343264.191366</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09475298888678446</v>
+        <v>0.1136298954949836</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02789568619834729</v>
+        <v>0.03543577831581475</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>829878846.1737436</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1352811885.696397</v>
+        <v>1406701261.977757</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1256362048156007</v>
+        <v>0.1315831835242718</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02950267622729332</v>
+        <v>0.03154153929399949</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>676406035.6320204</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1738239206.153643</v>
+        <v>1127785226.555812</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1024535733237402</v>
+        <v>0.1327166380454724</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03989823076236053</v>
+        <v>0.05511311697042735</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>869119509.6163238</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1794545056.314376</v>
+        <v>2545647509.837615</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1279572585169763</v>
+        <v>0.1537001612527357</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04479018296319954</v>
+        <v>0.04306904603686891</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>897272622.5386399</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3543698710.707387</v>
+        <v>3505374970.638731</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1089099901540245</v>
+        <v>0.08197598021410156</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02851905760005603</v>
+        <v>0.02916891327852496</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1771849353.203214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2619916667.221736</v>
+        <v>2624828558.357086</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1879624916005972</v>
+        <v>0.2010690395960276</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01571081807420712</v>
+        <v>0.01738373036000457</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>99</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1309958370.196915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1490026170.109278</v>
+        <v>1503164248.275637</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09617816401841409</v>
+        <v>0.07837751266036938</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03232162864917101</v>
+        <v>0.02405562412436086</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>745013089.6486022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2511185722.956886</v>
+        <v>1747118764.346618</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1877137270691713</v>
+        <v>0.1644109509097568</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0339617505774665</v>
+        <v>0.04830602025021</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1255592903.837132</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5463902652.4685</v>
+        <v>3694474926.074882</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1105613713292962</v>
+        <v>0.1233764230370699</v>
       </c>
       <c r="G46" t="n">
-        <v>0.053771882337448</v>
+        <v>0.05861962426659909</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>98</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2731951379.575629</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5164196275.575585</v>
+        <v>4481023901.416583</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1262780554622054</v>
+        <v>0.1762555541758558</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0400463300808849</v>
+        <v>0.04373127725223284</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>74</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2582098202.917349</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3049587691.063588</v>
+        <v>4292121459.019147</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09483445578069651</v>
+        <v>0.07762510367224916</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02620628095425176</v>
+        <v>0.03237589934898392</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1524793935.165439</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1407700293.934576</v>
+        <v>1974250000.287139</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1598088690095184</v>
+        <v>0.1382778851167469</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04189979972696084</v>
+        <v>0.02802893309204168</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>703850193.3400512</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4214422716.545849</v>
+        <v>3114461723.150674</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1728261223255377</v>
+        <v>0.176988198004001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05195635865989635</v>
+        <v>0.04624560010834533</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>94</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2107211331.720598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1226385738.134086</v>
+        <v>996465630.3877432</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1219170716370103</v>
+        <v>0.1956762523419658</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05331567235070002</v>
+        <v>0.04935267439468829</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>613192916.3408421</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4180996335.930145</v>
+        <v>3188387231.413459</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1161245227172185</v>
+        <v>0.08890335091136292</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04005489041568592</v>
+        <v>0.05683880285550289</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>113</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2090498213.791927</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2317892432.474202</v>
+        <v>3093721178.978473</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1490977114569573</v>
+        <v>0.1630109487277126</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0290012533215914</v>
+        <v>0.02979547217960336</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1158946295.767567</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4017790838.743667</v>
+        <v>3625733411.130342</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1454278639273268</v>
+        <v>0.1155180127584302</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04222100508432116</v>
+        <v>0.04923533795389435</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2008895484.84578</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3836537584.01287</v>
+        <v>4850864096.138436</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1485548343875865</v>
+        <v>0.1486647471596806</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02567642199412371</v>
+        <v>0.01965788174435431</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1918268759.725629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1792509351.624484</v>
+        <v>1549815535.388102</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1215007597991013</v>
+        <v>0.1289468323100156</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05317804998218629</v>
+        <v>0.04377446835570559</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>896254674.7211896</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3730669891.157568</v>
+        <v>4224732158.918241</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1485815759355583</v>
+        <v>0.1534283065557045</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01769615508142909</v>
+        <v>0.02462860926637126</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>87</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1865335011.328024</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1724771431.027191</v>
+        <v>1233894380.382465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.17106405434181</v>
+        <v>0.1710992397031541</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03840602383138184</v>
+        <v>0.02435633690628356</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>862385726.1291323</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4422420427.159763</v>
+        <v>5274475957.27002</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1185723661928054</v>
+        <v>0.128390317556841</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03073615448244113</v>
+        <v>0.04906177970760879</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2211210169.132485</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2310760146.856867</v>
+        <v>2513018591.165221</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1942221399779684</v>
+        <v>0.2054408564369647</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0259949025478564</v>
+        <v>0.02080899301007972</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>85</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1155380071.475548</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3219238051.392896</v>
+        <v>2311013360.310208</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1349172381516795</v>
+        <v>0.1428687020928542</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02230861159050477</v>
+        <v>0.02390802435401755</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>95</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1609618985.485197</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1569578153.681519</v>
+        <v>1754887750.088821</v>
       </c>
       <c r="F62" t="n">
-        <v>0.155571953478998</v>
+        <v>0.1698129488399966</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0357088415515316</v>
+        <v>0.04035709757396509</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>784789070.3523637</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4459707240.86745</v>
+        <v>3969315632.413737</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09608083861792224</v>
+        <v>0.09260091471174174</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04447089465223231</v>
+        <v>0.03321783123814294</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2229853662.302525</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4152136332.188396</v>
+        <v>5545779747.653365</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1443471991595519</v>
+        <v>0.1550225926863926</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02887824875144341</v>
+        <v>0.03484626452903744</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>86</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2076068212.651201</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5893773803.658838</v>
+        <v>5501039280.552284</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1327002695197989</v>
+        <v>0.1179593422458449</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02726323493332991</v>
+        <v>0.0280474456516264</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>99</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2946886807.412154</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4532341547.635118</v>
+        <v>3694880095.188825</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1112830925068091</v>
+        <v>0.1548942688349409</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04694558573636199</v>
+        <v>0.04789832238111291</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>81</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2266170775.955995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2568296392.432128</v>
+        <v>2596051287.000302</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07221039515974279</v>
+        <v>0.08151956232187248</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04652865580291948</v>
+        <v>0.04532701648077694</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>88</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1284148251.060426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5327453720.402594</v>
+        <v>4110640259.309258</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1251359339604836</v>
+        <v>0.1107631736417661</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05082103890368395</v>
+        <v>0.04071269947029977</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2663726936.44004</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2095008234.409122</v>
+        <v>2447943845.263935</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1130730176170757</v>
+        <v>0.1200951421819827</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03856685368154995</v>
+        <v>0.03822586466782694</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1047504134.428817</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3358546079.653885</v>
+        <v>2641633032.295329</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09007248649588807</v>
+        <v>0.08158685094561667</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03515009892760915</v>
+        <v>0.03461936786143641</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>79</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1679273040.126441</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4040901362.29987</v>
+        <v>4151208585.378467</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1406588144610252</v>
+        <v>0.1619729541013913</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02753509668474964</v>
+        <v>0.02720174066665087</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>101</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2020450715.235853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1496455385.07715</v>
+        <v>2256988199.734635</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08151595644630241</v>
+        <v>0.08649397155990667</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05046712402094659</v>
+        <v>0.03298115608424534</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>748227720.1034175</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3235382033.303339</v>
+        <v>2805998308.959133</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09847049859758353</v>
+        <v>0.09730223108470822</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04047057264104049</v>
+        <v>0.0417825505809683</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>103</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1617690991.079915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2951382365.282792</v>
+        <v>3900161162.11625</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1638829105350061</v>
+        <v>0.1745698933069864</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02714937902680515</v>
+        <v>0.02425050247728735</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>94</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1475691252.252221</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1744195739.484747</v>
+        <v>1875368995.879171</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1236013074790952</v>
+        <v>0.122830971637481</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03555382276271046</v>
+        <v>0.02718612669105401</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>872097857.9052424</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4685608794.509606</v>
+        <v>5149411818.147062</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1111148089200636</v>
+        <v>0.1222483658448332</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02338120434562024</v>
+        <v>0.02917296745487934</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2342804410.741953</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1872636890.796751</v>
+        <v>1879979022.681681</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1140200647766814</v>
+        <v>0.1464569744284959</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02142593714638262</v>
+        <v>0.03178128497397823</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>936318488.1073382</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4584719292.744407</v>
+        <v>3827012238.199364</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09409350542485685</v>
+        <v>0.1263878730528946</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03759226904643236</v>
+        <v>0.0571149888337234</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>96</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2292359570.262854</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1391285869.819374</v>
+        <v>1344005958.94651</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1265047945566135</v>
+        <v>0.14743046929107</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03570514502900354</v>
+        <v>0.03390007068455889</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>695642950.1101484</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4041343294.678169</v>
+        <v>5203284153.590387</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08920159824484672</v>
+        <v>0.08922658188049956</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03395692227155164</v>
+        <v>0.02507425947917041</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>57</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2020671648.862929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4678172128.411381</v>
+        <v>3952189055.825174</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09459033898005122</v>
+        <v>0.1203579397376831</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02192474697817166</v>
+        <v>0.02368220278321494</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2339086052.599118</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5459980664.41853</v>
+        <v>4590440614.100697</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1473974762822183</v>
+        <v>0.1889706653690665</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02589746514935767</v>
+        <v>0.02113907254887761</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2729990290.491995</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1793090242.065169</v>
+        <v>1577240084.791975</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1203796403917574</v>
+        <v>0.1027635276065196</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04347277804352277</v>
+        <v>0.02749442970731542</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>896545080.6192702</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1760753449.47471</v>
+        <v>2421337945.204209</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07622474621017802</v>
+        <v>0.1069077916540099</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03176699451342326</v>
+        <v>0.04680147082843967</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>880376764.7550095</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2857858444.480637</v>
+        <v>3571215113.509941</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1666739484916597</v>
+        <v>0.1786194883015148</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04712412283936077</v>
+        <v>0.04849410631582138</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>104</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1428929266.696406</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2502035006.177012</v>
+        <v>2333264627.097961</v>
       </c>
       <c r="F86" t="n">
-        <v>0.153572072055673</v>
+        <v>0.1286782902085631</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02178559280273091</v>
+        <v>0.02741327721863588</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1251017600.522026</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>959528722.9526001</v>
+        <v>1440451458.846428</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1369712423946212</v>
+        <v>0.1437826659868087</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03290713438148222</v>
+        <v>0.03474271008132603</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>479764355.4214671</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3267472933.311909</v>
+        <v>3088965749.865922</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1346508229001462</v>
+        <v>0.1613165767873726</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02513829092975741</v>
+        <v>0.0254976738104344</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>108</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1633736523.532448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2478082343.287763</v>
+        <v>2260675931.130127</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1175245459382115</v>
+        <v>0.1231818891152117</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03149983074637281</v>
+        <v>0.03958733787394467</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>94</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1239041248.008765</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1400823645.105139</v>
+        <v>1445312239.66003</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1136387250735108</v>
+        <v>0.1239085907138857</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0462113237962935</v>
+        <v>0.05343495017991205</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>700411783.15803</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1361131968.781186</v>
+        <v>1749802699.880644</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1828889125800391</v>
+        <v>0.1726036977187016</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04310940676757796</v>
+        <v>0.05919949105165111</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>680566041.8186482</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2734995969.790969</v>
+        <v>1837353731.764046</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0724441137818735</v>
+        <v>0.07001607162259189</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03896356539868395</v>
+        <v>0.03592155993833705</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>69</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1367497986.577955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4159433211.710498</v>
+        <v>3744791810.120059</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09897647939444475</v>
+        <v>0.1109920042198188</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03886780803391521</v>
+        <v>0.05323857393288993</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2079716596.175966</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2246686067.574531</v>
+        <v>2279288303.037574</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1249812344865683</v>
+        <v>0.1349356071709174</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02870054264059982</v>
+        <v>0.04036383900392952</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1123343064.218663</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2965467271.492901</v>
+        <v>3068884389.835777</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0925935927614356</v>
+        <v>0.09750834567523081</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03814975444905319</v>
+        <v>0.04972463638977462</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>66</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1482733637.977589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2269304786.345733</v>
+        <v>2196538158.94225</v>
       </c>
       <c r="F96" t="n">
-        <v>0.140858959058332</v>
+        <v>0.09654107706089327</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03905763869048706</v>
+        <v>0.04484546285080224</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1134652351.392001</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4497963896.892745</v>
+        <v>5377036042.178736</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1191629904533565</v>
+        <v>0.1471293255712478</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01966621617602967</v>
+        <v>0.02811362972473821</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>88</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2248982044.866081</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3279590750.198282</v>
+        <v>3807482920.867524</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08985445317366599</v>
+        <v>0.1056339366065991</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03252496129433253</v>
+        <v>0.02129602514962927</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1639795378.756983</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2430107103.304539</v>
+        <v>2140579459.950496</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1214428467232537</v>
+        <v>0.1453623476886011</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0214325351627901</v>
+        <v>0.02637049458057579</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1215053496.284896</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4704571016.288375</v>
+        <v>3645522634.2813</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1404227790361772</v>
+        <v>0.1372337492473708</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02287904337092111</v>
+        <v>0.02711455721552661</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2352285635.074298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2659746501.349493</v>
+        <v>2308249210.725855</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2125709706474213</v>
+        <v>0.1634077662174173</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04509473918523664</v>
+        <v>0.03693845678322192</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>109</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1329873294.805572</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_275.xlsx
+++ b/output/fit_clients/fit_round_275.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1518427432.078854</v>
+        <v>2494665542.643332</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08353974692497503</v>
+        <v>0.1109808235528194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02883310262338795</v>
+        <v>0.04515701731631383</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2642633822.969162</v>
+        <v>2202586067.759235</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1407044313058437</v>
+        <v>0.1740073658247931</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03290423521948617</v>
+        <v>0.04023635363382761</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4896379485.052099</v>
+        <v>4550295269.58873</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1273018581220254</v>
+        <v>0.1403445891876631</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03280808696818924</v>
+        <v>0.03281731819477808</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3486412304.888917</v>
+        <v>2738581680.83467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07083116183679815</v>
+        <v>0.09496527377668984</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03926066399541505</v>
+        <v>0.03882362183692655</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1841599196.606902</v>
+        <v>2762656026.460991</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1227597778463475</v>
+        <v>0.1245287834390043</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04781616238376356</v>
+        <v>0.04154345368596413</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1933358106.214681</v>
+        <v>2253063246.986431</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0973748706219265</v>
+        <v>0.08283936218085669</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03689044206097698</v>
+        <v>0.0399797306903469</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3908584282.144097</v>
+        <v>2672788264.768705</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2008571047412967</v>
+        <v>0.1403711959366425</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03119638588032222</v>
+        <v>0.02337793178815479</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1476117547.061712</v>
+        <v>1895516710.840027</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1612957106794185</v>
+        <v>0.1936714907797857</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03368852222750315</v>
+        <v>0.02478195706045579</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5538268749.978772</v>
+        <v>5421349300.861941</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1634358284914654</v>
+        <v>0.2102197930283117</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04977560127436975</v>
+        <v>0.03877523676747158</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4134016092.095414</v>
+        <v>3099273693.97719</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1289341284997314</v>
+        <v>0.1913558550187937</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03102055360741257</v>
+        <v>0.03581567119845058</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2643418957.114167</v>
+        <v>2503655899.804212</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1747596104879907</v>
+        <v>0.1521800464901158</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04127050153864718</v>
+        <v>0.04799531254501996</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4200695504.604162</v>
+        <v>3224832819.350119</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0762315892960347</v>
+        <v>0.09651455619339949</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03001145008012491</v>
+        <v>0.02709468626925966</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3706248686.316326</v>
+        <v>3122362148.823829</v>
       </c>
       <c r="F14" t="n">
-        <v>0.151491840120938</v>
+        <v>0.1830593700781097</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0347927020388045</v>
+        <v>0.03890003261566691</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1512585781.069889</v>
+        <v>1800655961.335655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07060664972283802</v>
+        <v>0.07511146603478641</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04649927365206666</v>
+        <v>0.04056460156484069</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2187586305.003199</v>
+        <v>2126742710.80319</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07293381649678844</v>
+        <v>0.07086492094211613</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04566250008743248</v>
+        <v>0.04963615966728617</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3466106949.283922</v>
+        <v>4316735684.765828</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1336821415162336</v>
+        <v>0.1134149033694179</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03599553273314523</v>
+        <v>0.04517228873056678</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3415775887.696821</v>
+        <v>3363529696.77441</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1525242892195573</v>
+        <v>0.1222246397889954</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02434177114473276</v>
+        <v>0.02947366206859793</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1213946105.068881</v>
+        <v>1295018457.818298</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1918378698363983</v>
+        <v>0.1331146261638844</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02704790518184004</v>
+        <v>0.0177531570252321</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2366517030.608478</v>
+        <v>2006569077.335675</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09888391280987509</v>
+        <v>0.09765860164487117</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02540717576319845</v>
+        <v>0.03067475182289128</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1910465392.060997</v>
+        <v>2416315864.663371</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06439570767692181</v>
+        <v>0.06226453155958054</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03042246887529574</v>
+        <v>0.0292152594726366</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3313890765.56061</v>
+        <v>2485530914.702358</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1325340471375721</v>
+        <v>0.1308905672311867</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05439392490036406</v>
+        <v>0.04179423367952939</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>956745706.8049518</v>
+        <v>1254064436.940763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1221109461533384</v>
+        <v>0.1774033798885326</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03617779831691405</v>
+        <v>0.04029700922439577</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2838036656.093381</v>
+        <v>3212424730.410447</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1072586598315322</v>
+        <v>0.1409137644867053</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0302460300881335</v>
+        <v>0.02899967809141592</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1186585280.889384</v>
+        <v>1382691812.700315</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07772253810938393</v>
+        <v>0.09240142290063386</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02752235001422081</v>
+        <v>0.02699013415783904</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>956769935.2373717</v>
+        <v>1016950508.090482</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09887696136830901</v>
+        <v>0.1076512624457224</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03574782178200253</v>
+        <v>0.02376903387246694</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3045124026.213352</v>
+        <v>4487529470.278188</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1028968491578989</v>
+        <v>0.1173018505407049</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02163735869751295</v>
+        <v>0.02044840872878346</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3108231873.866165</v>
+        <v>2695040174.292467</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09426606851798545</v>
+        <v>0.1400377785828185</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04612168583636259</v>
+        <v>0.04011191334523675</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5371189312.627772</v>
+        <v>3953044505.314288</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09268353051996421</v>
+        <v>0.1204327059043359</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03767312449325923</v>
+        <v>0.02896424057362677</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1535088540.64629</v>
+        <v>2009210093.205524</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09968311501146281</v>
+        <v>0.1292067782328756</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03917211007187017</v>
+        <v>0.0365281160297968</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>903588255.8582875</v>
+        <v>1068726931.935346</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09323058187133118</v>
+        <v>0.08875840184345223</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05034618250881442</v>
+        <v>0.04849116926814816</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1414359064.058463</v>
+        <v>1543024375.880008</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09322351549064309</v>
+        <v>0.097450929291862</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03370470018657878</v>
+        <v>0.02649235477150874</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2181133978.690974</v>
+        <v>2787966738.809721</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1411536742223624</v>
+        <v>0.1974112540881305</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05884504066948194</v>
+        <v>0.03777079768877312</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1319501549.630908</v>
+        <v>1051070131.933763</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0792889651578583</v>
+        <v>0.1102147835365668</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01857337267549641</v>
+        <v>0.01992169644445037</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>954609350.3506575</v>
+        <v>1287254275.772514</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07465283090231212</v>
+        <v>0.07179191579595204</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03958897556724547</v>
+        <v>0.03649900103608317</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2637889247.804619</v>
+        <v>3195394914.008101</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1480396563654731</v>
+        <v>0.1420290450681162</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02868304541856764</v>
+        <v>0.02762348913519514</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2753809160.824275</v>
+        <v>2769968984.745633</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07341093167050922</v>
+        <v>0.1025593251907316</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03023584564684771</v>
+        <v>0.03754512559277662</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1472343264.191366</v>
+        <v>2029391787.943149</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1136298954949836</v>
+        <v>0.09390090370420114</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03543577831581475</v>
+        <v>0.03377133287780144</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1406701261.977757</v>
+        <v>1410184995.808171</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1315831835242718</v>
+        <v>0.1570973835615122</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03154153929399949</v>
+        <v>0.02839147862847537</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1127785226.555812</v>
+        <v>1254154073.385785</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1327166380454724</v>
+        <v>0.1057593707305941</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05511311697042735</v>
+        <v>0.04928651568810222</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2545647509.837615</v>
+        <v>2198990867.989507</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1537001612527357</v>
+        <v>0.1621262037102141</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04306904603686891</v>
+        <v>0.03393036508995005</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3505374970.638731</v>
+        <v>4176463900.689952</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08197598021410156</v>
+        <v>0.08690293893518804</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02916891327852496</v>
+        <v>0.03491006434325707</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2624828558.357086</v>
+        <v>3016975034.917086</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2010690395960276</v>
+        <v>0.1767962212736661</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01738373036000457</v>
+        <v>0.02394525341954509</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1503164248.275637</v>
+        <v>1965562056.212199</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07837751266036938</v>
+        <v>0.07086554478720214</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02405562412436086</v>
+        <v>0.02840296081344793</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1747118764.346618</v>
+        <v>1773540536.94507</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1644109509097568</v>
+        <v>0.1597871359835235</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04830602025021</v>
+        <v>0.0423570181598258</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3694474926.074882</v>
+        <v>5081401421.103608</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1233764230370699</v>
+        <v>0.1123979139042568</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05861962426659909</v>
+        <v>0.05095746488920688</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4481023901.416583</v>
+        <v>4086982798.498931</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1762555541758558</v>
+        <v>0.1623707349735286</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04373127725223284</v>
+        <v>0.05178288923782815</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4292121459.019147</v>
+        <v>3204836048.03632</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07762510367224916</v>
+        <v>0.0900371944494425</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03237589934898392</v>
+        <v>0.02970779378128682</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1974250000.287139</v>
+        <v>1905648627.683362</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1382778851167469</v>
+        <v>0.1824239371846364</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02802893309204168</v>
+        <v>0.03795395684181802</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3114461723.150674</v>
+        <v>3826208854.214727</v>
       </c>
       <c r="F50" t="n">
-        <v>0.176988198004001</v>
+        <v>0.176278082170792</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04624560010834533</v>
+        <v>0.0489882139233251</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>996465630.3877432</v>
+        <v>1273369982.940831</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1956762523419658</v>
+        <v>0.15193893681693</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04935267439468829</v>
+        <v>0.03589060749087743</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3188387231.413459</v>
+        <v>3554931790.576092</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08890335091136292</v>
+        <v>0.09598304308300096</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05683880285550289</v>
+        <v>0.03831614019449039</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3093721178.978473</v>
+        <v>2973716647.67083</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1630109487277126</v>
+        <v>0.1501686403107569</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02979547217960336</v>
+        <v>0.02595829250339701</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3625733411.130342</v>
+        <v>3540497726.297683</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1155180127584302</v>
+        <v>0.1095043378329849</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04923533795389435</v>
+        <v>0.03702355517346153</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4850864096.138436</v>
+        <v>3669590807.306573</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1486647471596806</v>
+        <v>0.1575398835173729</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01965788174435431</v>
+        <v>0.02268883216891916</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1549815535.388102</v>
+        <v>1425306136.671469</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1289468323100156</v>
+        <v>0.128187371728142</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04377446835570559</v>
+        <v>0.04399446033032955</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4224732158.918241</v>
+        <v>3883221759.052413</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1534283065557045</v>
+        <v>0.1251020596079714</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02462860926637126</v>
+        <v>0.02226736814111495</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1233894380.382465</v>
+        <v>1668452737.269958</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1710992397031541</v>
+        <v>0.1516241516573175</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02435633690628356</v>
+        <v>0.03494176052258635</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5274475957.27002</v>
+        <v>5025784562.391285</v>
       </c>
       <c r="F59" t="n">
-        <v>0.128390317556841</v>
+        <v>0.1167340666279698</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04906177970760879</v>
+        <v>0.04536577942935839</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2513018591.165221</v>
+        <v>2800765713.689119</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2054408564369647</v>
+        <v>0.134698610034818</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02080899301007972</v>
+        <v>0.02326820789550412</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2311013360.310208</v>
+        <v>2708087598.207425</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1428687020928542</v>
+        <v>0.1768876925069922</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02390802435401755</v>
+        <v>0.02480787050184254</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1754887750.088821</v>
+        <v>1332200924.095655</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1698129488399966</v>
+        <v>0.1812705738541961</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04035709757396509</v>
+        <v>0.03688607963776805</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3969315632.413737</v>
+        <v>4409997478.034057</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09260091471174174</v>
+        <v>0.09097409306250882</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03321783123814294</v>
+        <v>0.03705696487074427</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5545779747.653365</v>
+        <v>4318768560.878585</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1550225926863926</v>
+        <v>0.136048146576038</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03484626452903744</v>
+        <v>0.03294285245661704</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5501039280.552284</v>
+        <v>3969116274.757759</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1179593422458449</v>
+        <v>0.1512315205949133</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0280474456516264</v>
+        <v>0.02598697227647182</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3694880095.188825</v>
+        <v>3884015749.868676</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1548942688349409</v>
+        <v>0.1190524776357974</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04789832238111291</v>
+        <v>0.03464620176191692</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2596051287.000302</v>
+        <v>2390271935.591484</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08151956232187248</v>
+        <v>0.0807375169966168</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04532701648077694</v>
+        <v>0.03481603128001005</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4110640259.309258</v>
+        <v>4510553205.572336</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1107631736417661</v>
+        <v>0.1499098572609367</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04071269947029977</v>
+        <v>0.03184040586458732</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2447943845.263935</v>
+        <v>2317199436.379665</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1200951421819827</v>
+        <v>0.1590871197316703</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03822586466782694</v>
+        <v>0.03850717213955374</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2641633032.295329</v>
+        <v>2676017628.482313</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08158685094561667</v>
+        <v>0.0847315267818281</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03461936786143641</v>
+        <v>0.04268628046960251</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4151208585.378467</v>
+        <v>3668132854.460683</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1619729541013913</v>
+        <v>0.1628763233297846</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02720174066665087</v>
+        <v>0.0313083531126895</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2256988199.734635</v>
+        <v>1885048083.049062</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08649397155990667</v>
+        <v>0.08881696281323417</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03298115608424534</v>
+        <v>0.03260868238726192</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2805998308.959133</v>
+        <v>3557653911.791581</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09730223108470822</v>
+        <v>0.07769250602250216</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0417825505809683</v>
+        <v>0.03326023383457791</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3900161162.11625</v>
+        <v>3520226691.934084</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1745698933069864</v>
+        <v>0.1741161040130499</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02425050247728735</v>
+        <v>0.03441741951660168</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1875368995.879171</v>
+        <v>2075432464.945628</v>
       </c>
       <c r="F75" t="n">
-        <v>0.122830971637481</v>
+        <v>0.1637303791603408</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02718612669105401</v>
+        <v>0.02716664479057972</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5149411818.147062</v>
+        <v>4078190665.984834</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1222483658448332</v>
+        <v>0.08301978261620652</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02917296745487934</v>
+        <v>0.03067742675206244</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1879979022.681681</v>
+        <v>1932858440.000228</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1464569744284959</v>
+        <v>0.133879014206644</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03178128497397823</v>
+        <v>0.02129008118372967</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3827012238.199364</v>
+        <v>3952197056.518228</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1263878730528946</v>
+        <v>0.1007790796047378</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0571149888337234</v>
+        <v>0.05441573254748334</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1344005958.94651</v>
+        <v>1293214815.01564</v>
       </c>
       <c r="F79" t="n">
-        <v>0.14743046929107</v>
+        <v>0.1662304621568373</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03390007068455889</v>
+        <v>0.02718750449577833</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5203284153.590387</v>
+        <v>4077682669.679019</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08922658188049956</v>
+        <v>0.08231977514847537</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02507425947917041</v>
+        <v>0.03616231958074415</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3952189055.825174</v>
+        <v>4089628491.598743</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1203579397376831</v>
+        <v>0.09466309099417662</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02368220278321494</v>
+        <v>0.03062456344340017</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4590440614.100697</v>
+        <v>4874472619.723273</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1889706653690665</v>
+        <v>0.1723576203323088</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02113907254887761</v>
+        <v>0.02479950713313478</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1577240084.791975</v>
+        <v>2359559538.222416</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1027635276065196</v>
+        <v>0.1252954475753374</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02749442970731542</v>
+        <v>0.03670251561982329</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2421337945.204209</v>
+        <v>1578011890.979497</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1069077916540099</v>
+        <v>0.07413873614684828</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04680147082843967</v>
+        <v>0.04587487400013114</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3571215113.509941</v>
+        <v>2558975230.850564</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1786194883015148</v>
+        <v>0.1629574636091015</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04849410631582138</v>
+        <v>0.05281867160161778</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2333264627.097961</v>
+        <v>2474146459.792823</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1286782902085631</v>
+        <v>0.1327728477785336</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02741327721863588</v>
+        <v>0.02247658335652132</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1440451458.846428</v>
+        <v>1065043919.616324</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1437826659868087</v>
+        <v>0.1325186424992592</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03474271008132603</v>
+        <v>0.03132666119836072</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3088965749.865922</v>
+        <v>3146705671.025463</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1613165767873726</v>
+        <v>0.1284227152728006</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0254976738104344</v>
+        <v>0.03071642826043641</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2260675931.130127</v>
+        <v>2918010484.17911</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1231818891152117</v>
+        <v>0.1547824009109368</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03958733787394467</v>
+        <v>0.03149398535926509</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1445312239.66003</v>
+        <v>1388757715.660507</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1239085907138857</v>
+        <v>0.09566853577050848</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05343495017991205</v>
+        <v>0.04122009922821275</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1749802699.880644</v>
+        <v>1729640743.125846</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1726036977187016</v>
+        <v>0.1732952505459517</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05919949105165111</v>
+        <v>0.05782173111585849</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1837353731.764046</v>
+        <v>2384309770.082971</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07001607162259189</v>
+        <v>0.08475763985364522</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03592155993833705</v>
+        <v>0.03961135645467408</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3744791810.120059</v>
+        <v>4070276176.878963</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1109920042198188</v>
+        <v>0.1045664029155938</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05323857393288993</v>
+        <v>0.0415320816682038</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2279288303.037574</v>
+        <v>1711830041.854268</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1349356071709174</v>
+        <v>0.1282661503910466</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04036383900392952</v>
+        <v>0.02927342226458019</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3068884389.835777</v>
+        <v>2953499004.302869</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09750834567523081</v>
+        <v>0.09702594573035796</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04972463638977462</v>
+        <v>0.03582867062102699</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2196538158.94225</v>
+        <v>1568804635.476892</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09654107706089327</v>
+        <v>0.09592906887960767</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04484546285080224</v>
+        <v>0.03874495042582687</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5377036042.178736</v>
+        <v>5156529088.077145</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1471293255712478</v>
+        <v>0.1473282418880299</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02811362972473821</v>
+        <v>0.02769936890465551</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3807482920.867524</v>
+        <v>2392076918.622316</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1056339366065991</v>
+        <v>0.1294065803291736</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02129602514962927</v>
+        <v>0.02348366721863806</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2140579459.950496</v>
+        <v>2141806521.584324</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1453623476886011</v>
+        <v>0.1442568336063286</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02637049458057579</v>
+        <v>0.03442096469131171</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3645522634.2813</v>
+        <v>3922350721.752211</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1372337492473708</v>
+        <v>0.115061779007415</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02711455721552661</v>
+        <v>0.02552478535160236</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2308249210.725855</v>
+        <v>2568657327.494448</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1634077662174173</v>
+        <v>0.1469979996022909</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03693845678322192</v>
+        <v>0.04136863912338561</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_275.xlsx
+++ b/output/fit_clients/fit_round_275.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2494665542.643332</v>
+        <v>1526856560.897331</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1109808235528194</v>
+        <v>0.09079011994287027</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04515701731631383</v>
+        <v>0.030665915126117</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2202586067.759235</v>
+        <v>2110718021.460484</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1740073658247931</v>
+        <v>0.1493489623497013</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04023635363382761</v>
+        <v>0.04795391531267365</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4550295269.58873</v>
+        <v>3270685411.018618</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1403445891876631</v>
+        <v>0.1397424820445854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03281731819477808</v>
+        <v>0.03407466485715571</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>147</v>
+      </c>
+      <c r="J4" t="n">
+        <v>274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>73.67756454696281</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2738581680.83467</v>
+        <v>3908422623.606925</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09496527377668984</v>
+        <v>0.08328749256794443</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03882362183692655</v>
+        <v>0.04739729497327101</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>110</v>
+      </c>
+      <c r="J5" t="n">
+        <v>275</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2762656026.460991</v>
+        <v>2665734750.849441</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1245287834390043</v>
+        <v>0.1438615313834985</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04154345368596413</v>
+        <v>0.03585113859963181</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2253063246.986431</v>
+        <v>2804762838.141592</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08283936218085669</v>
+        <v>0.0788183898622396</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0399797306903469</v>
+        <v>0.04254178930497846</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2672788264.768705</v>
+        <v>3237423136.45801</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1403711959366425</v>
+        <v>0.1706788192793166</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02337793178815479</v>
+        <v>0.02728580857194415</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>272</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1895516710.840027</v>
+        <v>1838502663.1738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1936714907797857</v>
+        <v>0.1860239755273861</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02478195706045579</v>
+        <v>0.02318400898029131</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5421349300.861941</v>
+        <v>4445754417.2719</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2102197930283117</v>
+        <v>0.1729644442373688</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03877523676747158</v>
+        <v>0.03801783041996788</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>247</v>
+      </c>
+      <c r="J10" t="n">
+        <v>275</v>
+      </c>
+      <c r="K10" t="n">
+        <v>95.54558115060674</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3099273693.97719</v>
+        <v>2940402676.214152</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1913558550187937</v>
+        <v>0.1227825898757289</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03581567119845058</v>
+        <v>0.04699722479181171</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>111</v>
+      </c>
+      <c r="J11" t="n">
+        <v>274</v>
+      </c>
+      <c r="K11" t="n">
+        <v>68.7939764562896</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2503655899.804212</v>
+        <v>2520179668.154338</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1521800464901158</v>
+        <v>0.1334804243050614</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04799531254501996</v>
+        <v>0.04531030384847658</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3224832819.350119</v>
+        <v>4774098474.200492</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09651455619339949</v>
+        <v>0.0685068794210808</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02709468626925966</v>
+        <v>0.02346780727100908</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>140</v>
+      </c>
+      <c r="J13" t="n">
+        <v>274</v>
+      </c>
+      <c r="K13" t="n">
+        <v>91.7371501193544</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3122362148.823829</v>
+        <v>3338343707.669426</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1830593700781097</v>
+        <v>0.1816459160833797</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03890003261566691</v>
+        <v>0.04290824131833142</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>56</v>
+      </c>
+      <c r="J14" t="n">
+        <v>272</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1800655961.335655</v>
+        <v>1264604345.994736</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07511146603478641</v>
+        <v>0.06670633762179652</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04056460156484069</v>
+        <v>0.03916245187883258</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2126742710.80319</v>
+        <v>2257812067.282209</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07086492094211613</v>
+        <v>0.08927353584253866</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04963615966728617</v>
+        <v>0.04159785033472175</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4316735684.765828</v>
+        <v>4418526628.899104</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1134149033694179</v>
+        <v>0.1134783053946014</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04517228873056678</v>
+        <v>0.04291495914257256</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>131</v>
+      </c>
+      <c r="J17" t="n">
+        <v>275</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3363529696.77441</v>
+        <v>3836082153.291316</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1222246397889954</v>
+        <v>0.1603754194865092</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02947366206859793</v>
+        <v>0.02470009211401564</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>70</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="n">
+        <v>97.41632524469762</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1295018457.818298</v>
+        <v>1335194198.175682</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1331146261638844</v>
+        <v>0.1412600004128216</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0177531570252321</v>
+        <v>0.02278671469686536</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2006569077.335675</v>
+        <v>1701693568.675953</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09765860164487117</v>
+        <v>0.1546219894975709</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03067475182289128</v>
+        <v>0.02012210390410353</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2416315864.663371</v>
+        <v>1929440562.200044</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06226453155958054</v>
+        <v>0.0683161673248931</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0292152594726366</v>
+        <v>0.03886409085977464</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2485530914.702358</v>
+        <v>3171158528.917732</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1308905672311867</v>
+        <v>0.1065434667957637</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04179423367952939</v>
+        <v>0.04057493259106115</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>72</v>
+      </c>
+      <c r="J22" t="n">
+        <v>274</v>
+      </c>
+      <c r="K22" t="n">
+        <v>68.5850152074302</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1254064436.940763</v>
+        <v>1209758022.261315</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1774033798885326</v>
+        <v>0.138926750522859</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04029700922439577</v>
+        <v>0.0455553022965127</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3212424730.410447</v>
+        <v>2526641782.584884</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1409137644867053</v>
+        <v>0.1355628047770543</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02899967809141592</v>
+        <v>0.02800469874265867</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>82</v>
+      </c>
+      <c r="J24" t="n">
+        <v>273</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1382691812.700315</v>
+        <v>1004876281.92891</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09240142290063386</v>
+        <v>0.083714878968748</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02699013415783904</v>
+        <v>0.02603752778004483</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1016950508.090482</v>
+        <v>960729838.2189957</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1076512624457224</v>
+        <v>0.1026667936765903</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02376903387246694</v>
+        <v>0.02788278964360844</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4487529470.278188</v>
+        <v>3342990712.163175</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1173018505407049</v>
+        <v>0.1381774147756764</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02044840872878346</v>
+        <v>0.02101018688662558</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>113</v>
+      </c>
+      <c r="J27" t="n">
+        <v>274</v>
+      </c>
+      <c r="K27" t="n">
+        <v>71.56836256696563</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2695040174.292467</v>
+        <v>3688683029.43857</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1400377785828185</v>
+        <v>0.1521391943006463</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04011191334523675</v>
+        <v>0.04492819839548573</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>55</v>
+      </c>
+      <c r="J28" t="n">
+        <v>275</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3953044505.314288</v>
+        <v>5008236877.578633</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1204327059043359</v>
+        <v>0.1170063649949317</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02896424057362677</v>
+        <v>0.03588126180833406</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>263</v>
+      </c>
+      <c r="J29" t="n">
+        <v>275</v>
+      </c>
+      <c r="K29" t="n">
+        <v>94.96868560051976</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2009210093.205524</v>
+        <v>1838088320.730803</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1292067782328756</v>
+        <v>0.1248100009505334</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0365281160297968</v>
+        <v>0.02524832843537501</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1068726931.935346</v>
+        <v>1413079322.463965</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08875840184345223</v>
+        <v>0.09570188708892373</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04849116926814816</v>
+        <v>0.04761013217236298</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1543024375.880008</v>
+        <v>1791527984.429569</v>
       </c>
       <c r="F32" t="n">
-        <v>0.097450929291862</v>
+        <v>0.116693880478616</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02649235477150874</v>
+        <v>0.03795042805242571</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2787966738.809721</v>
+        <v>2900049691.397121</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1974112540881305</v>
+        <v>0.1426438737538469</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03777079768877312</v>
+        <v>0.05074219634365075</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1051070131.933763</v>
+        <v>1411154126.502741</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1102147835365668</v>
+        <v>0.09172980158103622</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01992169644445037</v>
+        <v>0.01769407713380491</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1287254275.772514</v>
+        <v>868320738.6267139</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07179191579595204</v>
+        <v>0.09956336985111792</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03649900103608317</v>
+        <v>0.03686470744079169</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3195394914.008101</v>
+        <v>3001257157.273495</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1420290450681162</v>
+        <v>0.1692308849108735</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02762348913519514</v>
+        <v>0.02465692279539259</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2769968984.745633</v>
+        <v>2048444385.612276</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1025593251907316</v>
+        <v>0.07581874489175386</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03754512559277662</v>
+        <v>0.03236087157826946</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2029391787.943149</v>
+        <v>1565540763.379097</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09390090370420114</v>
+        <v>0.09609994859353002</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03377133287780144</v>
+        <v>0.03304765533257275</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1410184995.808171</v>
+        <v>1617194237.586146</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1570973835615122</v>
+        <v>0.1231981147964643</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02839147862847537</v>
+        <v>0.03238882916085025</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1254154073.385785</v>
+        <v>1820378955.515208</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1057593707305941</v>
+        <v>0.1354010851848245</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04928651568810222</v>
+        <v>0.04666442615955655</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2198990867.989507</v>
+        <v>2844957848.526033</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1621262037102141</v>
+        <v>0.1393721155122062</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03393036508995005</v>
+        <v>0.03463419580992667</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4176463900.689952</v>
+        <v>4315442105.592381</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08690293893518804</v>
+        <v>0.07791502132753787</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03491006434325707</v>
+        <v>0.03982493005895037</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>115</v>
+      </c>
+      <c r="J42" t="n">
+        <v>275</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3016975034.917086</v>
+        <v>2534791302.028734</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1767962212736661</v>
+        <v>0.1963985813719114</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02394525341954509</v>
+        <v>0.01711579085383159</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1965562056.212199</v>
+        <v>1668253517.07724</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07086554478720214</v>
+        <v>0.08973194505736862</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02840296081344793</v>
+        <v>0.02622206163506403</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1773540536.94507</v>
+        <v>1721092132.817276</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1597871359835235</v>
+        <v>0.142560614745784</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0423570181598258</v>
+        <v>0.0429763799974419</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5081401421.103608</v>
+        <v>3562830523.33784</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1123979139042568</v>
+        <v>0.1223636670724187</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05095746488920688</v>
+        <v>0.04593640198349331</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>161</v>
+      </c>
+      <c r="J46" t="n">
+        <v>274</v>
+      </c>
+      <c r="K46" t="n">
+        <v>90.89768456904508</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4086982798.498931</v>
+        <v>3543837098.085177</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1623707349735286</v>
+        <v>0.1416687903311795</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05178288923782815</v>
+        <v>0.04811596610699739</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>123</v>
+      </c>
+      <c r="J47" t="n">
+        <v>275</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3204836048.03632</v>
+        <v>3358344166.851226</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0900371944494425</v>
+        <v>0.09141139702661508</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02970779378128682</v>
+        <v>0.03002437130803355</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>136</v>
+      </c>
+      <c r="J48" t="n">
+        <v>272</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1905648627.683362</v>
+        <v>1293747161.317738</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1824239371846364</v>
+        <v>0.1787220386107435</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03795395684181802</v>
+        <v>0.0296782181832481</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3826208854.214727</v>
+        <v>3045683324.895687</v>
       </c>
       <c r="F50" t="n">
-        <v>0.176278082170792</v>
+        <v>0.1178717743118002</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0489882139233251</v>
+        <v>0.04854745053071499</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>89</v>
+      </c>
+      <c r="J50" t="n">
+        <v>273</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1273369982.940831</v>
+        <v>935540048.4334997</v>
       </c>
       <c r="F51" t="n">
-        <v>0.15193893681693</v>
+        <v>0.1384553898479679</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03589060749087743</v>
+        <v>0.037351642196362</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3554931790.576092</v>
+        <v>5242961070.721013</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09598304308300096</v>
+        <v>0.1249784530761661</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03831614019449039</v>
+        <v>0.04074350334086069</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>173</v>
+      </c>
+      <c r="J52" t="n">
+        <v>275</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2973716647.67083</v>
+        <v>2738326667.715097</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1501686403107569</v>
+        <v>0.1262529833960796</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02595829250339701</v>
+        <v>0.03465165181192339</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>273</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3540497726.297683</v>
+        <v>3137435370.63098</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1095043378329849</v>
+        <v>0.1578687701932706</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03702355517346153</v>
+        <v>0.03927378047149263</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>145</v>
+      </c>
+      <c r="J54" t="n">
+        <v>273</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3669590807.306573</v>
+        <v>4397172709.794133</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1575398835173729</v>
+        <v>0.1795863864875995</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02268883216891916</v>
+        <v>0.02006185044183936</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>124</v>
+      </c>
+      <c r="J55" t="n">
+        <v>274</v>
+      </c>
+      <c r="K55" t="n">
+        <v>91.77195813549689</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1425306136.671469</v>
+        <v>1180408543.027872</v>
       </c>
       <c r="F56" t="n">
-        <v>0.128187371728142</v>
+        <v>0.1372147834007366</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04399446033032955</v>
+        <v>0.04159285352757149</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3883221759.052413</v>
+        <v>4384372668.246315</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1251020596079714</v>
+        <v>0.122035522560615</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02226736814111495</v>
+        <v>0.01825803058822359</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>110</v>
+      </c>
+      <c r="J57" t="n">
+        <v>275</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1668452737.269958</v>
+        <v>1605183493.918505</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1516241516573175</v>
+        <v>0.1481638695274005</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03494176052258635</v>
+        <v>0.03682455219188483</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5025784562.391285</v>
+        <v>4901794322.872859</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1167340666279698</v>
+        <v>0.1296066002208468</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04536577942935839</v>
+        <v>0.03824839688461703</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>133</v>
+      </c>
+      <c r="J59" t="n">
+        <v>274</v>
+      </c>
+      <c r="K59" t="n">
+        <v>87.93084981799815</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2800765713.689119</v>
+        <v>3557932483.126023</v>
       </c>
       <c r="F60" t="n">
-        <v>0.134698610034818</v>
+        <v>0.2012799962967133</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02326820789550412</v>
+        <v>0.02032566132387466</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>41</v>
+      </c>
+      <c r="J60" t="n">
+        <v>275</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2708087598.207425</v>
+        <v>2325215087.978469</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1768876925069922</v>
+        <v>0.1778871837973439</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02480787050184254</v>
+        <v>0.03200196523803391</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1332200924.095655</v>
+        <v>1315072365.707096</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1812705738541961</v>
+        <v>0.145269683175945</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03688607963776805</v>
+        <v>0.0308012237493821</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4409997478.034057</v>
+        <v>4687835002.995086</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09097409306250882</v>
+        <v>0.07764602477554686</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03705696487074427</v>
+        <v>0.04175356776236443</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>133</v>
+      </c>
+      <c r="J63" t="n">
+        <v>275</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4318768560.878585</v>
+        <v>3525238251.305367</v>
       </c>
       <c r="F64" t="n">
-        <v>0.136048146576038</v>
+        <v>0.1341455673761543</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03294285245661704</v>
+        <v>0.02727714979602081</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>135</v>
+      </c>
+      <c r="J64" t="n">
+        <v>273</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3969116274.757759</v>
+        <v>5563247287.290068</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1512315205949133</v>
+        <v>0.1566729794300466</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02598697227647182</v>
+        <v>0.02681080853997521</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>221</v>
+      </c>
+      <c r="J65" t="n">
+        <v>275</v>
+      </c>
+      <c r="K65" t="n">
+        <v>93.64449519467004</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3884015749.868676</v>
+        <v>3625279357.727232</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1190524776357974</v>
+        <v>0.1627618278972117</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03464620176191692</v>
+        <v>0.05111241087305257</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>136</v>
+      </c>
+      <c r="J66" t="n">
+        <v>274</v>
+      </c>
+      <c r="K66" t="n">
+        <v>85.92859291034995</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2390271935.591484</v>
+        <v>2904028219.298859</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0807375169966168</v>
+        <v>0.08150237303330482</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03481603128001005</v>
+        <v>0.03136714091410586</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4510553205.572336</v>
+        <v>4638308641.614491</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1499098572609367</v>
+        <v>0.118306129072234</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03184040586458732</v>
+        <v>0.0497278264951154</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>142</v>
+      </c>
+      <c r="J68" t="n">
+        <v>275</v>
+      </c>
+      <c r="K68" t="n">
+        <v>94.49990491430638</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2317199436.379665</v>
+        <v>2252766439.249175</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1590871197316703</v>
+        <v>0.1749650979737326</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03850717213955374</v>
+        <v>0.04434489460588612</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2676017628.482313</v>
+        <v>3194580506.755832</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0847315267818281</v>
+        <v>0.07505331425456926</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04268628046960251</v>
+        <v>0.04543611140929369</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3668132854.460683</v>
+        <v>5104299910.960837</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1628763233297846</v>
+        <v>0.1764981757688335</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0313083531126895</v>
+        <v>0.03250184915047635</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>207</v>
+      </c>
+      <c r="J71" t="n">
+        <v>275</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1885048083.049062</v>
+        <v>1523368467.741667</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08881696281323417</v>
+        <v>0.0987993363036038</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03260868238726192</v>
+        <v>0.04481765922999108</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3557653911.791581</v>
+        <v>3563456584.451755</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07769250602250216</v>
+        <v>0.07120789300999177</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03326023383457791</v>
+        <v>0.03660622883317358</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3520226691.934084</v>
+        <v>3300930676.948295</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1741161040130499</v>
+        <v>0.1787231292770678</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03441741951660168</v>
+        <v>0.03548656505489457</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2075432464.945628</v>
+        <v>2004610900.261225</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1637303791603408</v>
+        <v>0.155693115621291</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02716664479057972</v>
+        <v>0.03783000751358997</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4078190665.984834</v>
+        <v>4830757779.19939</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08301978261620652</v>
+        <v>0.09653055138009574</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03067742675206244</v>
+        <v>0.03065885748298089</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>129</v>
+      </c>
+      <c r="J76" t="n">
+        <v>274</v>
+      </c>
+      <c r="K76" t="n">
+        <v>84.80288265440522</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1932858440.000228</v>
+        <v>1609129349.693897</v>
       </c>
       <c r="F77" t="n">
-        <v>0.133879014206644</v>
+        <v>0.1563775740247215</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02129008118372967</v>
+        <v>0.0252258252370322</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3952197056.518228</v>
+        <v>2911493538.492029</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1007790796047378</v>
+        <v>0.1139609092690038</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05441573254748334</v>
+        <v>0.05354206784169713</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>138</v>
+      </c>
+      <c r="J78" t="n">
+        <v>274</v>
+      </c>
+      <c r="K78" t="n">
+        <v>59.97355547574873</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1293214815.01564</v>
+        <v>1894557143.462984</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1662304621568373</v>
+        <v>0.1520459136478344</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02718750449577833</v>
+        <v>0.03290018983017149</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4077682669.679019</v>
+        <v>4392537108.913677</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08231977514847537</v>
+        <v>0.1071133114680762</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03616231958074415</v>
+        <v>0.02802212042999144</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>134</v>
+      </c>
+      <c r="J80" t="n">
+        <v>275</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4089628491.598743</v>
+        <v>3279211718.489099</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09466309099417662</v>
+        <v>0.1105304999270327</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03062456344340017</v>
+        <v>0.03055587282303689</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>126</v>
+      </c>
+      <c r="J81" t="n">
+        <v>274</v>
+      </c>
+      <c r="K81" t="n">
+        <v>67.27730037636574</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4874472619.723273</v>
+        <v>5321169224.60737</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1723576203323088</v>
+        <v>0.1660475425768288</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02479950713313478</v>
+        <v>0.02550551271969188</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>205</v>
+      </c>
+      <c r="J82" t="n">
+        <v>274</v>
+      </c>
+      <c r="K82" t="n">
+        <v>93.44733385136534</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2359559538.222416</v>
+        <v>2286277526.399088</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1252954475753374</v>
+        <v>0.1413990379045127</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03670251561982329</v>
+        <v>0.03425013694254669</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1578011890.979497</v>
+        <v>2042010390.589866</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07413873614684828</v>
+        <v>0.0786233581566527</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04587487400013114</v>
+        <v>0.04229600705398945</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2558975230.850564</v>
+        <v>2450347109.716123</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1629574636091015</v>
+        <v>0.1700268858776298</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05281867160161778</v>
+        <v>0.05240675279969991</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>273</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2474146459.792823</v>
+        <v>2381624799.726988</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1327728477785336</v>
+        <v>0.1609727289633272</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02247658335652132</v>
+        <v>0.02492902150100205</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1065043919.616324</v>
+        <v>1180977618.484462</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1325186424992592</v>
+        <v>0.1796010727520714</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03132666119836072</v>
+        <v>0.0368835636459417</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3146705671.025463</v>
+        <v>2291071527.431509</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1284227152728006</v>
+        <v>0.1474799351204494</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03071642826043641</v>
+        <v>0.02748755719762993</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2918010484.17911</v>
+        <v>2141260988.394271</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1547824009109368</v>
+        <v>0.1361927754624066</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03149398535926509</v>
+        <v>0.02724315355945112</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1388757715.660507</v>
+        <v>1620703967.974551</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09566853577050848</v>
+        <v>0.1009171849074146</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04122009922821275</v>
+        <v>0.05041608688759533</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1729640743.125846</v>
+        <v>1309186586.967925</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1732952505459517</v>
+        <v>0.1227281370127998</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05782173111585849</v>
+        <v>0.04948565032563539</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2384309770.082971</v>
+        <v>2326631049.552254</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08475763985364522</v>
+        <v>0.1000439165875368</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03961135645467408</v>
+        <v>0.0469025084831222</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4070276176.878963</v>
+        <v>4943607750.516178</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1045664029155938</v>
+        <v>0.09319628567245605</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0415320816682038</v>
+        <v>0.03807577509323717</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>119</v>
+      </c>
+      <c r="J93" t="n">
+        <v>275</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1711830041.854268</v>
+        <v>1692679793.103529</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1282661503910466</v>
+        <v>0.1282656375513939</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02927342226458019</v>
+        <v>0.03421462839544695</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2953499004.302869</v>
+        <v>2100063362.623604</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09702594573035796</v>
+        <v>0.08750483622684568</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03582867062102699</v>
+        <v>0.04175632102745263</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1568804635.476892</v>
+        <v>2113854971.663779</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09592906887960767</v>
+        <v>0.1417629495595403</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03874495042582687</v>
+        <v>0.04350156208861489</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5156529088.077145</v>
+        <v>3259530183.573168</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1473282418880299</v>
+        <v>0.1725071001478637</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02769936890465551</v>
+        <v>0.02619251628973415</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>136</v>
+      </c>
+      <c r="J97" t="n">
+        <v>274</v>
+      </c>
+      <c r="K97" t="n">
+        <v>75.95497321782634</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2392076918.622316</v>
+        <v>2587996957.377522</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1294065803291736</v>
+        <v>0.1089716094943906</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02348366721863806</v>
+        <v>0.03149613103484446</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>66</v>
+      </c>
+      <c r="J98" t="n">
+        <v>274</v>
+      </c>
+      <c r="K98" t="n">
+        <v>46.64122150577611</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2141806521.584324</v>
+        <v>2703880962.865504</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1442568336063286</v>
+        <v>0.1172680000260802</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03442096469131171</v>
+        <v>0.03556400273305007</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3922350721.752211</v>
+        <v>3910790053.58114</v>
       </c>
       <c r="F100" t="n">
-        <v>0.115061779007415</v>
+        <v>0.1529113707473809</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02552478535160236</v>
+        <v>0.02353262060083178</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>116</v>
+      </c>
+      <c r="J100" t="n">
+        <v>275</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2568657327.494448</v>
+        <v>3606034953.311245</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1469979996022909</v>
+        <v>0.1393992693162603</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04136863912338561</v>
+        <v>0.05668210598475121</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23</v>
+      </c>
+      <c r="J101" t="n">
+        <v>275</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
